--- a/999999/1603/45/16/xlsx/mda.xlsx
+++ b/999999/1603/45/16/xlsx/mda.xlsx
@@ -49,7 +49,7 @@
     <t>MD001</t>
   </si>
   <si>
-    <t>Moldova</t>
+    <t>Republic of Moldova (the)</t>
   </si>
   <si>
     <t>MD</t>
@@ -163,7 +163,7 @@
     <t>MD019</t>
   </si>
   <si>
-    <t>HDncesti</t>
+    <t>Hincesti</t>
   </si>
   <si>
     <t>MD020</t>
@@ -205,13 +205,13 @@
     <t>MD026</t>
   </si>
   <si>
-    <t>RDscani</t>
+    <t>Riscani</t>
   </si>
   <si>
     <t>MD027</t>
   </si>
   <si>
-    <t>SDngerei</t>
+    <t>Singerei</t>
   </si>
   <si>
     <t>MD028</t>
@@ -392,10 +392,10 @@
         <v>13</v>
       </c>
       <c r="H2" s="1">
-        <v>43714</v>
+        <v>44694</v>
       </c>
       <c r="I2" s="1">
-        <v>44642</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="3">
@@ -412,10 +412,10 @@
         <v>13</v>
       </c>
       <c r="H3" s="1">
-        <v>43714</v>
+        <v>44694</v>
       </c>
       <c r="I3" s="1">
-        <v>44642</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="4">
@@ -432,10 +432,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="1">
-        <v>43714</v>
+        <v>44694</v>
       </c>
       <c r="I4" s="1">
-        <v>44642</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="5">
@@ -452,10 +452,10 @@
         <v>13</v>
       </c>
       <c r="H5" s="1">
-        <v>43714</v>
+        <v>44694</v>
       </c>
       <c r="I5" s="1">
-        <v>44642</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="6">
@@ -472,10 +472,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="1">
-        <v>43714</v>
+        <v>44694</v>
       </c>
       <c r="I6" s="1">
-        <v>44642</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="7">
@@ -492,10 +492,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="1">
-        <v>43714</v>
+        <v>44694</v>
       </c>
       <c r="I7" s="1">
-        <v>44642</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="8">
@@ -512,10 +512,10 @@
         <v>13</v>
       </c>
       <c r="H8" s="1">
-        <v>43714</v>
+        <v>44694</v>
       </c>
       <c r="I8" s="1">
-        <v>44642</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="1">
-        <v>43714</v>
+        <v>44694</v>
       </c>
       <c r="I9" s="1">
-        <v>44642</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="10">
@@ -552,10 +552,10 @@
         <v>13</v>
       </c>
       <c r="H10" s="1">
-        <v>43714</v>
+        <v>44694</v>
       </c>
       <c r="I10" s="1">
-        <v>44642</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="11">
@@ -572,10 +572,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="1">
-        <v>43714</v>
+        <v>44694</v>
       </c>
       <c r="I11" s="1">
-        <v>44642</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="1">
-        <v>43714</v>
+        <v>44694</v>
       </c>
       <c r="I12" s="1">
-        <v>44642</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="13">
@@ -612,10 +612,10 @@
         <v>13</v>
       </c>
       <c r="H13" s="1">
-        <v>43714</v>
+        <v>44694</v>
       </c>
       <c r="I13" s="1">
-        <v>44642</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="14">
@@ -632,10 +632,10 @@
         <v>13</v>
       </c>
       <c r="H14" s="1">
-        <v>43714</v>
+        <v>44694</v>
       </c>
       <c r="I14" s="1">
-        <v>44642</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="15">
@@ -652,10 +652,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="1">
-        <v>43714</v>
+        <v>44694</v>
       </c>
       <c r="I15" s="1">
-        <v>44642</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="16">
@@ -672,10 +672,10 @@
         <v>13</v>
       </c>
       <c r="H16" s="1">
-        <v>43714</v>
+        <v>44694</v>
       </c>
       <c r="I16" s="1">
-        <v>44642</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="17">
@@ -692,10 +692,10 @@
         <v>13</v>
       </c>
       <c r="H17" s="1">
-        <v>43714</v>
+        <v>44694</v>
       </c>
       <c r="I17" s="1">
-        <v>44642</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="18">
@@ -712,10 +712,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="1">
-        <v>43714</v>
+        <v>44694</v>
       </c>
       <c r="I18" s="1">
-        <v>44642</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="19">
@@ -732,10 +732,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="1">
-        <v>43714</v>
+        <v>44694</v>
       </c>
       <c r="I19" s="1">
-        <v>44642</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="20">
@@ -752,10 +752,10 @@
         <v>13</v>
       </c>
       <c r="H20" s="1">
-        <v>43714</v>
+        <v>44694</v>
       </c>
       <c r="I20" s="1">
-        <v>44642</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="21">
@@ -772,10 +772,10 @@
         <v>13</v>
       </c>
       <c r="H21" s="1">
-        <v>43714</v>
+        <v>44694</v>
       </c>
       <c r="I21" s="1">
-        <v>44642</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="22">
@@ -792,10 +792,10 @@
         <v>13</v>
       </c>
       <c r="H22" s="1">
-        <v>43714</v>
+        <v>44694</v>
       </c>
       <c r="I22" s="1">
-        <v>44642</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="23">
@@ -812,10 +812,10 @@
         <v>13</v>
       </c>
       <c r="H23" s="1">
-        <v>43714</v>
+        <v>44694</v>
       </c>
       <c r="I23" s="1">
-        <v>44642</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="24">
@@ -832,10 +832,10 @@
         <v>13</v>
       </c>
       <c r="H24" s="1">
-        <v>43714</v>
+        <v>44694</v>
       </c>
       <c r="I24" s="1">
-        <v>44642</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="25">
@@ -852,10 +852,10 @@
         <v>13</v>
       </c>
       <c r="H25" s="1">
-        <v>43714</v>
+        <v>44694</v>
       </c>
       <c r="I25" s="1">
-        <v>44642</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="26">
@@ -872,10 +872,10 @@
         <v>13</v>
       </c>
       <c r="H26" s="1">
-        <v>43714</v>
+        <v>44694</v>
       </c>
       <c r="I26" s="1">
-        <v>44642</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="27">
@@ -892,10 +892,10 @@
         <v>13</v>
       </c>
       <c r="H27" s="1">
-        <v>43714</v>
+        <v>44694</v>
       </c>
       <c r="I27" s="1">
-        <v>44642</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="28">
@@ -912,10 +912,10 @@
         <v>13</v>
       </c>
       <c r="H28" s="1">
-        <v>43714</v>
+        <v>44694</v>
       </c>
       <c r="I28" s="1">
-        <v>44642</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="29">
@@ -932,10 +932,10 @@
         <v>13</v>
       </c>
       <c r="H29" s="1">
-        <v>43714</v>
+        <v>44694</v>
       </c>
       <c r="I29" s="1">
-        <v>44642</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="30">
@@ -952,10 +952,10 @@
         <v>13</v>
       </c>
       <c r="H30" s="1">
-        <v>43714</v>
+        <v>44694</v>
       </c>
       <c r="I30" s="1">
-        <v>44642</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="31">
@@ -972,10 +972,10 @@
         <v>13</v>
       </c>
       <c r="H31" s="1">
-        <v>43714</v>
+        <v>44694</v>
       </c>
       <c r="I31" s="1">
-        <v>44642</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="32">
@@ -992,10 +992,10 @@
         <v>13</v>
       </c>
       <c r="H32" s="1">
-        <v>43714</v>
+        <v>44694</v>
       </c>
       <c r="I32" s="1">
-        <v>44642</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="33">
@@ -1012,10 +1012,10 @@
         <v>13</v>
       </c>
       <c r="H33" s="1">
-        <v>43714</v>
+        <v>44694</v>
       </c>
       <c r="I33" s="1">
-        <v>44642</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="34">
@@ -1032,10 +1032,10 @@
         <v>13</v>
       </c>
       <c r="H34" s="1">
-        <v>43714</v>
+        <v>44694</v>
       </c>
       <c r="I34" s="1">
-        <v>44642</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="35">
@@ -1052,10 +1052,10 @@
         <v>13</v>
       </c>
       <c r="H35" s="1">
-        <v>43714</v>
+        <v>44694</v>
       </c>
       <c r="I35" s="1">
-        <v>44642</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="36">
@@ -1072,10 +1072,10 @@
         <v>13</v>
       </c>
       <c r="H36" s="1">
-        <v>43714</v>
+        <v>44694</v>
       </c>
       <c r="I36" s="1">
-        <v>44642</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="37">
@@ -1092,10 +1092,10 @@
         <v>13</v>
       </c>
       <c r="H37" s="1">
-        <v>43714</v>
+        <v>44694</v>
       </c>
       <c r="I37" s="1">
-        <v>44642</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="38">
@@ -1112,10 +1112,10 @@
         <v>13</v>
       </c>
       <c r="H38" s="1">
-        <v>43714</v>
+        <v>44694</v>
       </c>
       <c r="I38" s="1">
-        <v>44642</v>
+        <v>44694</v>
       </c>
     </row>
   </sheetData>
@@ -1169,10 +1169,10 @@
         <v>13</v>
       </c>
       <c r="F2" s="1">
-        <v>43714</v>
+        <v>44694</v>
       </c>
       <c r="G2" s="1">
-        <v>44642</v>
+        <v>44694</v>
       </c>
     </row>
   </sheetData>
